--- a/biology/Botanique/Liste_des_ravageurs_des_plantes_cultivées_par_type_de_culture/Liste_des_ravageurs_des_plantes_cultivées_par_type_de_culture.xlsx
+++ b/biology/Botanique/Liste_des_ravageurs_des_plantes_cultivées_par_type_de_culture/Liste_des_ravageurs_des_plantes_cultivées_par_type_de_culture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
+          <t>Liste_des_ravageurs_des_plantes_cultivées_par_type_de_culture</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste se propose de recenser les animaux ravageurs des plantes cultivées classés par type de culture.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
+          <t>Liste_des_ravageurs_des_plantes_cultivées_par_type_de_culture</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Arbres fruitiers à noyaux
-Abricotier, cerisier, pêcher, prunier, etc.
+          <t>Arbres fruitiers à noyaux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Abricotier, cerisier, pêcher, prunier, etc.
 Hoplocampe commun du prunier
 Hoplocampe noir du prunier
-Tenthrède limace
-Arbres fruitiers à pépins
-Pommier, poirier, etc.
+Tenthrède limace</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_ravageurs_des_plantes_cultivées_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Arbres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Arbres fruitiers à pépins</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pommier, poirier, etc.
 Agrile du poirier
 Cécidomyie des poirettes
 Hoplocampe du poirier
@@ -529,44 +580,114 @@
 Puceron lanigère du pommier
 Tenthrède limace
 Tigre du poirier
-Zeuzère du poirier
-Essences forestières
-Processionnaire du chêne
+Zeuzère du poirier</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_ravageurs_des_plantes_cultivées_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Arbres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Essences forestières</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Processionnaire du chêne
 Processionnaire du pin
 Voir aussi :
 Liste des insectes xylophages.
-Écologie des insectes forestiers
-Arbres d'ornement
-Mineuse du marronnier
+Écologie des insectes forestiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_ravageurs_des_plantes_cultivées_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Arbres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Arbres d'ornement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mineuse du marronnier
 Tigre du platane</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_ravageurs_des_plantes_cultivées_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Céréales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Anguillule des céréales
 Cécydomie de l'avoine
@@ -592,61 +713,65 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_ravageurs_des_plantes_cultivées_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Graminées fourragères</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Tipule des prairies</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_ravageurs_des_plantes_cultivées_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Légumineuses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Apion du pois
 Bruche de la fève
@@ -659,31 +784,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_ravageurs_des_plantes_cultivées_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Rosier</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Bupreste du rosier
 Cétoine dorée
@@ -696,31 +823,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_ravageurs_des_plantes_cultivées_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Solanées</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Altise de la pomme de terre
 Psylliodes affinis (Europe)
@@ -741,31 +870,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_ravageurs_des_plantes_cultivées_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_des_plantes_cultiv%C3%A9es_par_type_de_culture</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Vigne</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Altise de la vigne
 Cécydomie de la vigne
